--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS2.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="142">
   <si>
     <t>Signal_Value_7</t>
   </si>
@@ -351,6 +351,24 @@
     <t>Signal_Value_116</t>
   </si>
   <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -423,10 +441,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -787,15 +802,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DG6"/>
+  <dimension ref="A1:DM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:111">
+    <row r="1" spans="1:117">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1127,10 +1142,28 @@
       <c r="DG1" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="1:111">
+    <row r="2" spans="1:117">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1139,190 +1172,190 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.08794336623224493</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03573899549450342</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.03479588665262739</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.04203435598972566</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2055826593343563</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.09881319524294578</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01782441720434832</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.008932141981671379</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1511512434613437</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08247738035135795</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01821681559729951</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.003041916641829616</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.002105163393441585</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0001902219554162656</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.001503754368729142</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000426646691559305</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0003371929779872999</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.09025131940739545</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.03378225303155048</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.02627297698035358</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.0008372843030437224</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.005784260304030194</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.005865026838846834</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.007348801137008489</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.02306974666147634</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.002065394310276927</v>
       </c>
       <c r="AH2">
-        <v>0.02913448163355234</v>
+        <v>0.01280371676693826</v>
       </c>
       <c r="AI2">
-        <v>0.007321434995468885</v>
+        <v>0.0008038666876917439</v>
       </c>
       <c r="AJ2">
-        <v>0.01662048016197299</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.04250659397138701</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0596055471061066</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01523083840029631</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.006276091189760833</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.06080368333341556</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.007919884017956225</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.1071266098887792</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0854055783812295</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0003593010372888849</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.01866911344435357</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.07787518720685283</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.1263529406616509</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.02653263772007699</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.01398905408104976</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.05542708002434669</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0216999658901106</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.003239245970367981</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.004652706001985181</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.02123677024885578</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.05242583860809662</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.04801902068735512</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0100522879836961</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0003197601462367862</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.003328533780629568</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.008145362216198175</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.01418595393425842</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.02000986720726778</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.02136089586321233</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.01416725420618438</v>
+        <v>0</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -1462,10 +1495,28 @@
       <c r="DG2">
         <v>0</v>
       </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:111">
+    <row r="3" spans="1:117">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1702,105 +1753,123 @@
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01428450020517988</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.004195384465495429</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0159642133992234</v>
+        <v>0</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.008626448861905023</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0004811550229920142</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01614490060675567</v>
+        <v>0.1430972438266674</v>
       </c>
       <c r="CI3">
-        <v>0.03015480645705415</v>
+        <v>0.01951155915252418</v>
       </c>
       <c r="CJ3">
-        <v>0</v>
+        <v>0.03237521595368376</v>
       </c>
       <c r="CK3">
-        <v>0.0804641322341829</v>
+        <v>0.07153388910311304</v>
       </c>
       <c r="CL3">
-        <v>0.127376086007875</v>
+        <v>0.1835701114585877</v>
       </c>
       <c r="CM3">
-        <v>0</v>
+        <v>0.07098310529891501</v>
       </c>
       <c r="CN3">
-        <v>0.04572964258182971</v>
+        <v>0.006573931997174637</v>
       </c>
       <c r="CO3">
-        <v>0.1312667766795178</v>
+        <v>0.01606207121214066</v>
       </c>
       <c r="CP3">
-        <v>0.1255613666560883</v>
+        <v>0.1486124903487705</v>
       </c>
       <c r="CQ3">
-        <v>0.0296268350960519</v>
+        <v>0.05936544827017125</v>
       </c>
       <c r="CR3">
-        <v>0.001777744378530533</v>
+        <v>0.01584751970576841</v>
       </c>
       <c r="CS3">
-        <v>0.008542332658725223</v>
+        <v>0.0004025600377116251</v>
       </c>
       <c r="CT3">
-        <v>0.02626166259477848</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.006827072035690693</v>
+        <v>0.009624138678233139</v>
       </c>
       <c r="CV3">
-        <v>0.00305678572044567</v>
+        <v>0.002562824826228365</v>
       </c>
       <c r="CW3">
-        <v>0.02358023905969422</v>
+        <v>0.001300962519390789</v>
       </c>
       <c r="CX3">
-        <v>0.0613709055351768</v>
+        <v>0.009183268762531078</v>
       </c>
       <c r="CY3">
-        <v>0.07125189170150061</v>
+        <v>9.992032057649931E-06</v>
       </c>
       <c r="CZ3">
-        <v>0.03433693177553934</v>
+        <v>0.0004592093479012725</v>
       </c>
       <c r="DA3">
-        <v>0.005622932397580478</v>
+        <v>0.0008124558668241352</v>
       </c>
       <c r="DB3">
-        <v>0</v>
+        <v>0.0006808182528136741</v>
       </c>
       <c r="DC3">
-        <v>0.00301044681953618</v>
+        <v>0.1109749127093794</v>
       </c>
       <c r="DD3">
-        <v>0.02120630408563873</v>
+        <v>0.01429867297272244</v>
       </c>
       <c r="DE3">
-        <v>0.04164211544772617</v>
+        <v>0.02976902447254179</v>
       </c>
       <c r="DF3">
-        <v>0.04302633101253384</v>
+        <v>0.0001188741848594933</v>
       </c>
       <c r="DG3">
-        <v>0.01861005650275206</v>
+        <v>0.004438275978049727</v>
+      </c>
+      <c r="DH3">
+        <v>0.005276658203719146</v>
+      </c>
+      <c r="DI3">
+        <v>0.00256960166352952</v>
+      </c>
+      <c r="DJ3">
+        <v>0.0179390183877076</v>
+      </c>
+      <c r="DK3">
+        <v>0.001362466882675734</v>
+      </c>
+      <c r="DL3">
+        <v>0.01789005427485721</v>
+      </c>
+      <c r="DM3">
+        <v>0.002793623618749518</v>
       </c>
     </row>
-    <row r="4" spans="1:111">
+    <row r="4" spans="1:117">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1809,25 +1878,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07760998127570268</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1144516467295461</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.144597450810841</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1623361859965504</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1489128336508974</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.08725969240672499</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02352207175255864</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1836,37 +1905,37 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.008630287078911386</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.02154175692459415</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02273920036162296</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.02293167350281874</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01970702838992387</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02100453860453639</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.02821475653085627</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.03511775440724405</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.03230866579167235</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.02370698998165345</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.005407485803345143</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -2055,87 +2124,105 @@
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>0</v>
+        <v>0.169048391879024</v>
       </c>
       <c r="CI4">
-        <v>0</v>
+        <v>0.02347280693456559</v>
       </c>
       <c r="CJ4">
-        <v>0</v>
+        <v>0.000341740293815842</v>
       </c>
       <c r="CK4">
-        <v>0</v>
+        <v>0.2460197292576132</v>
       </c>
       <c r="CL4">
-        <v>0</v>
+        <v>0.1119182281323111</v>
       </c>
       <c r="CM4">
-        <v>0</v>
+        <v>0.05102535427626244</v>
       </c>
       <c r="CN4">
-        <v>0</v>
+        <v>0.003314876759887284</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>0.06418820194708488</v>
       </c>
       <c r="CP4">
-        <v>0</v>
+        <v>0.1150594783277602</v>
       </c>
       <c r="CQ4">
-        <v>0</v>
+        <v>0.05590032105803043</v>
       </c>
       <c r="CR4">
-        <v>0</v>
+        <v>0.007166868327347572</v>
       </c>
       <c r="CS4">
-        <v>0</v>
+        <v>0.007264168605256985</v>
       </c>
       <c r="CT4">
         <v>0</v>
       </c>
       <c r="CU4">
-        <v>0</v>
+        <v>0.0005583430420932035</v>
       </c>
       <c r="CV4">
-        <v>0</v>
+        <v>0.00386149582837415</v>
       </c>
       <c r="CW4">
-        <v>0</v>
+        <v>0.001344475217676703</v>
       </c>
       <c r="CX4">
-        <v>0</v>
+        <v>0.01467576421454308</v>
       </c>
       <c r="CY4">
-        <v>0</v>
+        <v>0.0008451290457684286</v>
       </c>
       <c r="CZ4">
-        <v>0</v>
+        <v>0.00428838831977901</v>
       </c>
       <c r="DA4">
-        <v>0</v>
+        <v>0.002314536952923684</v>
       </c>
       <c r="DB4">
-        <v>0</v>
+        <v>0.01788214718764056</v>
       </c>
       <c r="DC4">
-        <v>0</v>
+        <v>0.03600203659755024</v>
       </c>
       <c r="DD4">
-        <v>0</v>
+        <v>8.410459510158857E-05</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4">
-        <v>0</v>
+        <v>0.003990580364279595</v>
       </c>
       <c r="DG4">
-        <v>0</v>
+        <v>0.01406220660153944</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0.01391647274784766</v>
+      </c>
+      <c r="DJ4">
+        <v>0.001163426049446188</v>
+      </c>
+      <c r="DK4">
+        <v>0.01462223178633912</v>
+      </c>
+      <c r="DL4">
+        <v>0.01093192906287195</v>
+      </c>
+      <c r="DM4">
+        <v>0.004736566587266056</v>
       </c>
     </row>
-    <row r="5" spans="1:111">
+    <row r="5" spans="1:117">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2153,100 +2240,100 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0482130996248897</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.06315663971705976</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0426972960292621</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008451102375840713</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0005115632695992314</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02978173434039166</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.07438271948618635</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1025602323273686</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.08991657771105878</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.05448971607054946</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.01559286801956256</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.007269798835499808</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.03543690062025361</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.06417573797568722</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.07671391986131577</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.07128472392476824</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.05444177527731714</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02895690713364816</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.009221998242777356</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0007126218286987774</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.008101283490557736</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0146620586692251</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01919860830631435</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.01931601473421803</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01622363092515734</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0130265222707465</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.009179927826919666</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.007156656175015393</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.007016530677598991</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.008150834252511866</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -2390,87 +2477,105 @@
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>0</v>
+        <v>0.1613300993600201</v>
       </c>
       <c r="CI5">
-        <v>0</v>
+        <v>0.002083312776384405</v>
       </c>
       <c r="CJ5">
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>0</v>
+        <v>0.0007001513294596876</v>
       </c>
       <c r="CL5">
-        <v>0</v>
+        <v>0.1972845718986159</v>
       </c>
       <c r="CM5">
-        <v>0</v>
+        <v>0.2130192583597903</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>0.03693927869446293</v>
       </c>
       <c r="CO5">
-        <v>0</v>
+        <v>0.02751278896830742</v>
       </c>
       <c r="CP5">
         <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>0.0127374684753442</v>
       </c>
       <c r="CR5">
-        <v>0</v>
+        <v>0.1092603631874352</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>0.03621476245346672</v>
       </c>
       <c r="CT5">
-        <v>0</v>
+        <v>0.001141798136705128</v>
       </c>
       <c r="CU5">
-        <v>0</v>
+        <v>0.02253424308567363</v>
       </c>
       <c r="CV5">
-        <v>0</v>
+        <v>0.0112495536909033</v>
       </c>
       <c r="CW5">
-        <v>0</v>
+        <v>0.002816141177098244</v>
       </c>
       <c r="CX5">
-        <v>0</v>
+        <v>0.002629482859363955</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>0.003865713621670154</v>
       </c>
       <c r="CZ5">
-        <v>0</v>
+        <v>0.00161220598211178</v>
       </c>
       <c r="DA5">
-        <v>0</v>
+        <v>0.00199074519065056</v>
       </c>
       <c r="DB5">
-        <v>0</v>
+        <v>0.02155354899818334</v>
       </c>
       <c r="DC5">
-        <v>0</v>
+        <v>0.04312324090386455</v>
       </c>
       <c r="DD5">
-        <v>0</v>
+        <v>0.0009301058941314158</v>
       </c>
       <c r="DE5">
-        <v>0</v>
+        <v>0.0006586227736445076</v>
       </c>
       <c r="DF5">
-        <v>0</v>
+        <v>0.008061308229864613</v>
       </c>
       <c r="DG5">
+        <v>0.01756506951598884</v>
+      </c>
+      <c r="DH5">
+        <v>0.0151358082661395</v>
+      </c>
+      <c r="DI5">
+        <v>0.005778245949510299</v>
+      </c>
+      <c r="DJ5">
+        <v>0.01946751526524274</v>
+      </c>
+      <c r="DK5">
+        <v>0.01216861677460187</v>
+      </c>
+      <c r="DL5">
+        <v>0.01063597818136496</v>
+      </c>
+      <c r="DM5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:111">
+    <row r="6" spans="1:117">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2494,100 +2599,100 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.115073559157733</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1221001654437004</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.09418126054270261</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0836952962898229</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.06062242852636544</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.02876472842972116</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01014454783719589</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0009215857574901213</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.000362921013028022</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0009125536681658983</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.004397269035155159</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.01429577783841734</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.03547741695767608</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.07082106143097439</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.09811518643791932</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.09666443473999395</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.07211886888741961</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.03980349864304479</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01724299651364264</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.003172786511701671</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0003364319452022161</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001135522138912991</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0008276791014170612</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>9.140439709880518E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0001267616471000475</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001321255967294221</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001094350682582083</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.005414020999905274</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.02084649341600586</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -2725,82 +2830,100 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>0.2095406664517859</v>
       </c>
       <c r="CI6">
-        <v>0</v>
+        <v>0.03127020002907623</v>
       </c>
       <c r="CJ6">
-        <v>0</v>
+        <v>0.002493758980526887</v>
       </c>
       <c r="CK6">
-        <v>0</v>
+        <v>0.1271960568203523</v>
       </c>
       <c r="CL6">
-        <v>0</v>
+        <v>0.1225170147348436</v>
       </c>
       <c r="CM6">
-        <v>0</v>
+        <v>0.06004395377838408</v>
       </c>
       <c r="CN6">
-        <v>0</v>
+        <v>0.007824723206904558</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>0.09744368201068386</v>
       </c>
       <c r="CP6">
-        <v>0</v>
+        <v>0.08235496495051776</v>
       </c>
       <c r="CQ6">
-        <v>0</v>
+        <v>0.03575019782610936</v>
       </c>
       <c r="CR6">
-        <v>0</v>
+        <v>0.01355606374304937</v>
       </c>
       <c r="CS6">
-        <v>0</v>
+        <v>0.01975802080875878</v>
       </c>
       <c r="CT6">
         <v>0</v>
       </c>
       <c r="CU6">
-        <v>0</v>
+        <v>3.336450025604313E-05</v>
       </c>
       <c r="CV6">
-        <v>0</v>
+        <v>0.0004741446776427297</v>
       </c>
       <c r="CW6">
-        <v>0</v>
+        <v>0.01198485009602729</v>
       </c>
       <c r="CX6">
-        <v>0</v>
+        <v>0.02111772541508053</v>
       </c>
       <c r="CY6">
-        <v>0</v>
+        <v>0.005607808261652718</v>
       </c>
       <c r="CZ6">
-        <v>0</v>
+        <v>0.01087645478686677</v>
       </c>
       <c r="DA6">
-        <v>0</v>
+        <v>0.001825268712269139</v>
       </c>
       <c r="DB6">
-        <v>0</v>
+        <v>0.02955463304127555</v>
       </c>
       <c r="DC6">
-        <v>0</v>
+        <v>0.02027565481221323</v>
       </c>
       <c r="DD6">
-        <v>0</v>
+        <v>0.003516118098753802</v>
       </c>
       <c r="DE6">
-        <v>0</v>
+        <v>0.01135009347735909</v>
       </c>
       <c r="DF6">
-        <v>0</v>
+        <v>0.0008913619498572512</v>
       </c>
       <c r="DG6">
-        <v>0</v>
+        <v>0.01222318404042404</v>
+      </c>
+      <c r="DH6">
+        <v>0.001627127670674781</v>
+      </c>
+      <c r="DI6">
+        <v>0.01788585857811364</v>
+      </c>
+      <c r="DJ6">
+        <v>0.001408134402868183</v>
+      </c>
+      <c r="DK6">
+        <v>0.005503475877185427</v>
+      </c>
+      <c r="DL6">
+        <v>0.01591453193638067</v>
+      </c>
+      <c r="DM6">
+        <v>0.01818090632410641</v>
       </c>
     </row>
   </sheetData>
@@ -2810,15 +2933,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DG6"/>
+  <dimension ref="A1:DM6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:111">
+    <row r="1" spans="1:117">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3150,10 +3273,28 @@
       <c r="DG1" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="1:111">
+    <row r="2" spans="1:117">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3162,333 +3303,351 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.08794336623224493</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1236823617267483</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1584782483793757</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2005126043691014</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4060952637034577</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5049084589464035</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5227328761507518</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5316650181324232</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.6828162615937668</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7652936419451248</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7835104575424243</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.7865523741842539</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.7865523741842539</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.7886575375776955</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.7888477595331118</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.790351513901841</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.790351513901841</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.7907781605934003</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.7907781605934003</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.7911153535713876</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.7911153535713876</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.881366672978783</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.9151489260103335</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.9414219029906871</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.9422591872937308</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.948043447597761</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.9539084744366079</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.9612572755736164</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.9843270222350927</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.9863924165453697</v>
       </c>
       <c r="AH2">
-        <v>0.02913448163355234</v>
+        <v>0.9991961333123079</v>
       </c>
       <c r="AI2">
-        <v>0.03645591662902122</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ2">
-        <v>0.05307639679099421</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK2">
-        <v>0.09558299076238122</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AL2">
-        <v>0.1551885378684878</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AM2">
-        <v>0.1704193762687841</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AN2">
-        <v>0.176695467458545</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AO2">
-        <v>0.2374991507919605</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AP2">
-        <v>0.2454190348099168</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AQ2">
-        <v>0.3525456446986959</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AR2">
-        <v>0.4379512230799254</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AS2">
-        <v>0.4383105241172143</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AT2">
-        <v>0.4569796375615678</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AU2">
-        <v>0.5348548247684206</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AV2">
-        <v>0.6612077654300714</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AW2">
-        <v>0.6877404031501484</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.7017294572311982</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AY2">
-        <v>0.7571565372555449</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AZ2">
-        <v>0.7788565031456555</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BA2">
-        <v>0.7820957491160234</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BB2">
-        <v>0.7867484551180086</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BC2">
-        <v>0.8079852253668643</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BD2">
-        <v>0.8604110639749609</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BE2">
-        <v>0.908430084662316</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BF2">
-        <v>0.9184823726460121</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BG2">
-        <v>0.9188021327922489</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BH2">
-        <v>0.9221306665728785</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BI2">
-        <v>0.9302760287890767</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BJ2">
-        <v>0.944461982723335</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BK2">
-        <v>0.9644718499306029</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BL2">
-        <v>0.9858327457938152</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BM2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BN2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BO2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BP2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BQ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BR2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BX2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BY2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BZ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CA2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CB2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CC2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CD2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CE2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CF2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CG2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CH2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CI2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CJ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CK2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CL2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CM2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CN2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CO2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CP2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CQ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CR2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CX2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CY2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CZ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DA2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DB2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DC2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DD2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DE2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DF2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="DG2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DH2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DI2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DJ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DK2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DL2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DM2">
+        <v>0.9999999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:111">
+    <row r="3" spans="1:117">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3725,1105 +3884,1177 @@
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01428450020517988</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01847988467067531</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0344440980698987</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0344440980698987</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.04307054693180373</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.04355170195479574</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.05969660256155142</v>
+        <v>0.1430972438266674</v>
       </c>
       <c r="CI3">
-        <v>0.08985140901860557</v>
+        <v>0.1626088029791916</v>
       </c>
       <c r="CJ3">
-        <v>0.08985140901860557</v>
+        <v>0.1949840189328754</v>
       </c>
       <c r="CK3">
-        <v>0.1703155412527885</v>
+        <v>0.2665179080359884</v>
       </c>
       <c r="CL3">
-        <v>0.2976916272606635</v>
+        <v>0.4500880194945761</v>
       </c>
       <c r="CM3">
-        <v>0.2976916272606635</v>
+        <v>0.5210711247934912</v>
       </c>
       <c r="CN3">
-        <v>0.3434212698424932</v>
+        <v>0.5276450567906658</v>
       </c>
       <c r="CO3">
-        <v>0.474688046522011</v>
+        <v>0.5437071280028064</v>
       </c>
       <c r="CP3">
-        <v>0.6002494131780993</v>
+        <v>0.692319618351577</v>
       </c>
       <c r="CQ3">
-        <v>0.6298762482741512</v>
+        <v>0.7516850666217482</v>
       </c>
       <c r="CR3">
-        <v>0.6316539926526817</v>
+        <v>0.7675325863275165</v>
       </c>
       <c r="CS3">
-        <v>0.6401963253114069</v>
+        <v>0.7679351463652282</v>
       </c>
       <c r="CT3">
-        <v>0.6664579879061854</v>
+        <v>0.7679351463652282</v>
       </c>
       <c r="CU3">
-        <v>0.673285059941876</v>
+        <v>0.7775592850434613</v>
       </c>
       <c r="CV3">
-        <v>0.6763418456623217</v>
+        <v>0.7801221098696897</v>
       </c>
       <c r="CW3">
-        <v>0.6999220847220159</v>
+        <v>0.7814230723890805</v>
       </c>
       <c r="CX3">
-        <v>0.7612929902571927</v>
+        <v>0.7906063411516115</v>
       </c>
       <c r="CY3">
-        <v>0.8325448819586933</v>
+        <v>0.7906163331836692</v>
       </c>
       <c r="CZ3">
-        <v>0.8668818137342326</v>
+        <v>0.7910755425315704</v>
       </c>
       <c r="DA3">
-        <v>0.8725047461318131</v>
+        <v>0.7918879983983945</v>
       </c>
       <c r="DB3">
-        <v>0.8725047461318131</v>
+        <v>0.7925688166512082</v>
       </c>
       <c r="DC3">
-        <v>0.8755151929513493</v>
+        <v>0.9035437293605876</v>
       </c>
       <c r="DD3">
-        <v>0.896721497036988</v>
+        <v>0.91784240233331</v>
       </c>
       <c r="DE3">
-        <v>0.9383636124847141</v>
+        <v>0.9476114268058519</v>
       </c>
       <c r="DF3">
-        <v>0.981389943497248</v>
+        <v>0.9477303009907113</v>
       </c>
       <c r="DG3">
+        <v>0.952168576968761</v>
+      </c>
+      <c r="DH3">
+        <v>0.9574452351724801</v>
+      </c>
+      <c r="DI3">
+        <v>0.9600148368360096</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9779538552237172</v>
+      </c>
+      <c r="DK3">
+        <v>0.979316322106393</v>
+      </c>
+      <c r="DL3">
+        <v>0.9972063763812502</v>
+      </c>
+      <c r="DM3">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:117">
+      <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0.169048391879024</v>
+      </c>
+      <c r="CI4">
+        <v>0.1925211988135895</v>
+      </c>
+      <c r="CJ4">
+        <v>0.1928629391074054</v>
+      </c>
+      <c r="CK4">
+        <v>0.4388826683650185</v>
+      </c>
+      <c r="CL4">
+        <v>0.5508008964973297</v>
+      </c>
+      <c r="CM4">
+        <v>0.6018262507735921</v>
+      </c>
+      <c r="CN4">
+        <v>0.6051411275334794</v>
+      </c>
+      <c r="CO4">
+        <v>0.6693293294805642</v>
+      </c>
+      <c r="CP4">
+        <v>0.7843888078083244</v>
+      </c>
+      <c r="CQ4">
+        <v>0.8402891288663549</v>
+      </c>
+      <c r="CR4">
+        <v>0.8474559971937025</v>
+      </c>
+      <c r="CS4">
+        <v>0.8547201657989595</v>
+      </c>
+      <c r="CT4">
+        <v>0.8547201657989595</v>
+      </c>
+      <c r="CU4">
+        <v>0.8552785088410527</v>
+      </c>
+      <c r="CV4">
+        <v>0.8591400046694269</v>
+      </c>
+      <c r="CW4">
+        <v>0.8604844798871035</v>
+      </c>
+      <c r="CX4">
+        <v>0.8751602441016466</v>
+      </c>
+      <c r="CY4">
+        <v>0.876005373147415</v>
+      </c>
+      <c r="CZ4">
+        <v>0.880293761467194</v>
+      </c>
+      <c r="DA4">
+        <v>0.8826082984201177</v>
+      </c>
+      <c r="DB4">
+        <v>0.9004904456077583</v>
+      </c>
+      <c r="DC4">
+        <v>0.9364924822053085</v>
+      </c>
+      <c r="DD4">
+        <v>0.93657658680041</v>
+      </c>
+      <c r="DE4">
+        <v>0.93657658680041</v>
+      </c>
+      <c r="DF4">
+        <v>0.9405671671646896</v>
+      </c>
+      <c r="DG4">
+        <v>0.954629373766229</v>
+      </c>
+      <c r="DH4">
+        <v>0.954629373766229</v>
+      </c>
+      <c r="DI4">
+        <v>0.9685458465140767</v>
+      </c>
+      <c r="DJ4">
+        <v>0.9697092725635229</v>
+      </c>
+      <c r="DK4">
+        <v>0.9843315043498621</v>
+      </c>
+      <c r="DL4">
+        <v>0.995263433412734</v>
+      </c>
+      <c r="DM4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:111">
-      <c r="A4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.07760998127570268</v>
-      </c>
-      <c r="E4">
-        <v>0.1920616280052488</v>
-      </c>
-      <c r="F4">
-        <v>0.3366590788160898</v>
-      </c>
-      <c r="G4">
-        <v>0.4989952648126402</v>
-      </c>
-      <c r="H4">
-        <v>0.6479080984635376</v>
-      </c>
-      <c r="I4">
-        <v>0.7351677908702625</v>
-      </c>
-      <c r="J4">
-        <v>0.7586898626228211</v>
-      </c>
-      <c r="K4">
-        <v>0.7586898626228211</v>
-      </c>
-      <c r="L4">
-        <v>0.7586898626228211</v>
-      </c>
-      <c r="M4">
-        <v>0.7673201497017325</v>
-      </c>
-      <c r="N4">
-        <v>0.7888619066263266</v>
-      </c>
-      <c r="O4">
-        <v>0.8116011069879495</v>
-      </c>
-      <c r="P4">
-        <v>0.8345327804907683</v>
-      </c>
-      <c r="Q4">
-        <v>0.8542398088806922</v>
-      </c>
-      <c r="R4">
-        <v>0.8752443474852286</v>
-      </c>
-      <c r="S4">
-        <v>0.9034591040160849</v>
-      </c>
-      <c r="T4">
-        <v>0.9385768584233289</v>
-      </c>
-      <c r="U4">
-        <v>0.9708855242150013</v>
-      </c>
-      <c r="V4">
-        <v>0.9945925141966547</v>
-      </c>
-      <c r="W4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="X4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="Y4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="Z4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AA4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AB4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AC4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AD4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AE4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AF4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AG4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AK4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AL4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AM4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AN4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AO4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AP4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AR4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AS4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AT4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AU4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AV4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AW4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AX4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AY4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AZ4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BA4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BB4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BC4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BD4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BE4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BF4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BG4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BH4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BI4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BJ4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BK4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BL4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BM4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BN4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BO4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BP4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BQ4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BR4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BS4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BT4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BU4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BV4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BW4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BX4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BY4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BZ4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CA4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CB4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CC4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CD4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CE4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CF4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CG4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CH4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CI4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CJ4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CK4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CL4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CM4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CN4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CO4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CP4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CQ4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CR4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CS4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CT4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CU4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CV4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CW4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CX4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CY4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CZ4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DA4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DB4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DC4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DD4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DE4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DF4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DG4">
-        <v>0.9999999999999999</v>
+    <row r="5" spans="1:117">
+      <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0.1613300993600201</v>
+      </c>
+      <c r="CI5">
+        <v>0.1634134121364045</v>
+      </c>
+      <c r="CJ5">
+        <v>0.1634134121364045</v>
+      </c>
+      <c r="CK5">
+        <v>0.1641135634658642</v>
+      </c>
+      <c r="CL5">
+        <v>0.3613981353644801</v>
+      </c>
+      <c r="CM5">
+        <v>0.5744173937242704</v>
+      </c>
+      <c r="CN5">
+        <v>0.6113566724187333</v>
+      </c>
+      <c r="CO5">
+        <v>0.6388694613870407</v>
+      </c>
+      <c r="CP5">
+        <v>0.6388694613870407</v>
+      </c>
+      <c r="CQ5">
+        <v>0.6516069298623849</v>
+      </c>
+      <c r="CR5">
+        <v>0.76086729304982</v>
+      </c>
+      <c r="CS5">
+        <v>0.7970820555032867</v>
+      </c>
+      <c r="CT5">
+        <v>0.7982238536399918</v>
+      </c>
+      <c r="CU5">
+        <v>0.8207580967256655</v>
+      </c>
+      <c r="CV5">
+        <v>0.8320076504165688</v>
+      </c>
+      <c r="CW5">
+        <v>0.834823791593667</v>
+      </c>
+      <c r="CX5">
+        <v>0.837453274453031</v>
+      </c>
+      <c r="CY5">
+        <v>0.8413189880747012</v>
+      </c>
+      <c r="CZ5">
+        <v>0.8429311940568129</v>
+      </c>
+      <c r="DA5">
+        <v>0.8449219392474635</v>
+      </c>
+      <c r="DB5">
+        <v>0.8664754882456468</v>
+      </c>
+      <c r="DC5">
+        <v>0.9095987291495113</v>
+      </c>
+      <c r="DD5">
+        <v>0.9105288350436428</v>
+      </c>
+      <c r="DE5">
+        <v>0.9111874578172873</v>
+      </c>
+      <c r="DF5">
+        <v>0.9192487660471519</v>
+      </c>
+      <c r="DG5">
+        <v>0.9368138355631407</v>
+      </c>
+      <c r="DH5">
+        <v>0.9519496438292802</v>
+      </c>
+      <c r="DI5">
+        <v>0.9577278897787904</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9771954050440331</v>
+      </c>
+      <c r="DK5">
+        <v>0.989364021818635</v>
+      </c>
+      <c r="DL5">
+        <v>1</v>
+      </c>
+      <c r="DM5">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:111">
-      <c r="A5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.0482130996248897</v>
-      </c>
-      <c r="H5">
-        <v>0.1113697393419495</v>
-      </c>
-      <c r="I5">
-        <v>0.1540670353712116</v>
-      </c>
-      <c r="J5">
-        <v>0.1625181377470523</v>
-      </c>
-      <c r="K5">
-        <v>0.1630297010166515</v>
-      </c>
-      <c r="L5">
-        <v>0.1928114353570432</v>
-      </c>
-      <c r="M5">
-        <v>0.2671941548432295</v>
-      </c>
-      <c r="N5">
-        <v>0.3697543871705981</v>
-      </c>
-      <c r="O5">
-        <v>0.4596709648816569</v>
-      </c>
-      <c r="P5">
-        <v>0.5141606809522064</v>
-      </c>
-      <c r="Q5">
-        <v>0.5297535489717689</v>
-      </c>
-      <c r="R5">
-        <v>0.5297535489717689</v>
-      </c>
-      <c r="S5">
-        <v>0.5370233478072687</v>
-      </c>
-      <c r="T5">
-        <v>0.5724602484275223</v>
-      </c>
-      <c r="U5">
-        <v>0.6366359864032095</v>
-      </c>
-      <c r="V5">
-        <v>0.7133499062645253</v>
-      </c>
-      <c r="W5">
-        <v>0.7846346301892936</v>
-      </c>
-      <c r="X5">
-        <v>0.8390764054666107</v>
-      </c>
-      <c r="Y5">
-        <v>0.8680333126002588</v>
-      </c>
-      <c r="Z5">
-        <v>0.8772553108430362</v>
-      </c>
-      <c r="AA5">
-        <v>0.8772553108430362</v>
-      </c>
-      <c r="AB5">
-        <v>0.877967932671735</v>
-      </c>
-      <c r="AC5">
-        <v>0.8860692161622927</v>
-      </c>
-      <c r="AD5">
-        <v>0.9007312748315178</v>
-      </c>
-      <c r="AE5">
-        <v>0.9199298831378322</v>
-      </c>
-      <c r="AF5">
-        <v>0.9392458978720503</v>
-      </c>
-      <c r="AG5">
-        <v>0.9554695287972076</v>
-      </c>
-      <c r="AH5">
-        <v>0.9684960510679541</v>
-      </c>
-      <c r="AI5">
-        <v>0.9776759788948738</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9848326350698892</v>
-      </c>
-      <c r="AK5">
-        <v>0.9918491657474882</v>
-      </c>
-      <c r="AL5">
+    <row r="6" spans="1:117">
+      <c r="A6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0.2095406664517859</v>
+      </c>
+      <c r="CI6">
+        <v>0.2408108664808622</v>
+      </c>
+      <c r="CJ6">
+        <v>0.2433046254613891</v>
+      </c>
+      <c r="CK6">
+        <v>0.3705006822817414</v>
+      </c>
+      <c r="CL6">
+        <v>0.493017697016585</v>
+      </c>
+      <c r="CM6">
+        <v>0.5530616507949691</v>
+      </c>
+      <c r="CN6">
+        <v>0.5608863740018736</v>
+      </c>
+      <c r="CO6">
+        <v>0.6583300560125575</v>
+      </c>
+      <c r="CP6">
+        <v>0.7406850209630752</v>
+      </c>
+      <c r="CQ6">
+        <v>0.7764352187891845</v>
+      </c>
+      <c r="CR6">
+        <v>0.7899912825322339</v>
+      </c>
+      <c r="CS6">
+        <v>0.8097493033409927</v>
+      </c>
+      <c r="CT6">
+        <v>0.8097493033409927</v>
+      </c>
+      <c r="CU6">
+        <v>0.8097826678412487</v>
+      </c>
+      <c r="CV6">
+        <v>0.8102568125188915</v>
+      </c>
+      <c r="CW6">
+        <v>0.8222416626149188</v>
+      </c>
+      <c r="CX6">
+        <v>0.8433593880299993</v>
+      </c>
+      <c r="CY6">
+        <v>0.8489671962916521</v>
+      </c>
+      <c r="CZ6">
+        <v>0.8598436510785188</v>
+      </c>
+      <c r="DA6">
+        <v>0.861668919790788</v>
+      </c>
+      <c r="DB6">
+        <v>0.8912235528320636</v>
+      </c>
+      <c r="DC6">
+        <v>0.9114992076442768</v>
+      </c>
+      <c r="DD6">
+        <v>0.9150153257430307</v>
+      </c>
+      <c r="DE6">
+        <v>0.9263654192203897</v>
+      </c>
+      <c r="DF6">
+        <v>0.927256781170247</v>
+      </c>
+      <c r="DG6">
+        <v>0.939479965210671</v>
+      </c>
+      <c r="DH6">
+        <v>0.9411070928813458</v>
+      </c>
+      <c r="DI6">
+        <v>0.9589929514594594</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9604010858623275</v>
+      </c>
+      <c r="DK6">
+        <v>0.965904561739513</v>
+      </c>
+      <c r="DL6">
+        <v>0.9818190936758937</v>
+      </c>
+      <c r="DM6">
         <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>1</v>
-      </c>
-      <c r="AW5">
-        <v>1</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="AY5">
-        <v>1</v>
-      </c>
-      <c r="AZ5">
-        <v>1</v>
-      </c>
-      <c r="BA5">
-        <v>1</v>
-      </c>
-      <c r="BB5">
-        <v>1</v>
-      </c>
-      <c r="BC5">
-        <v>1</v>
-      </c>
-      <c r="BD5">
-        <v>1</v>
-      </c>
-      <c r="BE5">
-        <v>1</v>
-      </c>
-      <c r="BF5">
-        <v>1</v>
-      </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>1</v>
-      </c>
-      <c r="BI5">
-        <v>1</v>
-      </c>
-      <c r="BJ5">
-        <v>1</v>
-      </c>
-      <c r="BK5">
-        <v>1</v>
-      </c>
-      <c r="BL5">
-        <v>1</v>
-      </c>
-      <c r="BM5">
-        <v>1</v>
-      </c>
-      <c r="BN5">
-        <v>1</v>
-      </c>
-      <c r="BO5">
-        <v>1</v>
-      </c>
-      <c r="BP5">
-        <v>1</v>
-      </c>
-      <c r="BQ5">
-        <v>1</v>
-      </c>
-      <c r="BR5">
-        <v>1</v>
-      </c>
-      <c r="BS5">
-        <v>1</v>
-      </c>
-      <c r="BT5">
-        <v>1</v>
-      </c>
-      <c r="BU5">
-        <v>1</v>
-      </c>
-      <c r="BV5">
-        <v>1</v>
-      </c>
-      <c r="BW5">
-        <v>1</v>
-      </c>
-      <c r="BX5">
-        <v>1</v>
-      </c>
-      <c r="BY5">
-        <v>1</v>
-      </c>
-      <c r="BZ5">
-        <v>1</v>
-      </c>
-      <c r="CA5">
-        <v>1</v>
-      </c>
-      <c r="CB5">
-        <v>1</v>
-      </c>
-      <c r="CC5">
-        <v>1</v>
-      </c>
-      <c r="CD5">
-        <v>1</v>
-      </c>
-      <c r="CE5">
-        <v>1</v>
-      </c>
-      <c r="CF5">
-        <v>1</v>
-      </c>
-      <c r="CG5">
-        <v>1</v>
-      </c>
-      <c r="CH5">
-        <v>1</v>
-      </c>
-      <c r="CI5">
-        <v>1</v>
-      </c>
-      <c r="CJ5">
-        <v>1</v>
-      </c>
-      <c r="CK5">
-        <v>1</v>
-      </c>
-      <c r="CL5">
-        <v>1</v>
-      </c>
-      <c r="CM5">
-        <v>1</v>
-      </c>
-      <c r="CN5">
-        <v>1</v>
-      </c>
-      <c r="CO5">
-        <v>1</v>
-      </c>
-      <c r="CP5">
-        <v>1</v>
-      </c>
-      <c r="CQ5">
-        <v>1</v>
-      </c>
-      <c r="CR5">
-        <v>1</v>
-      </c>
-      <c r="CS5">
-        <v>1</v>
-      </c>
-      <c r="CT5">
-        <v>1</v>
-      </c>
-      <c r="CU5">
-        <v>1</v>
-      </c>
-      <c r="CV5">
-        <v>1</v>
-      </c>
-      <c r="CW5">
-        <v>1</v>
-      </c>
-      <c r="CX5">
-        <v>1</v>
-      </c>
-      <c r="CY5">
-        <v>1</v>
-      </c>
-      <c r="CZ5">
-        <v>1</v>
-      </c>
-      <c r="DA5">
-        <v>1</v>
-      </c>
-      <c r="DB5">
-        <v>1</v>
-      </c>
-      <c r="DC5">
-        <v>1</v>
-      </c>
-      <c r="DD5">
-        <v>1</v>
-      </c>
-      <c r="DE5">
-        <v>1</v>
-      </c>
-      <c r="DF5">
-        <v>1</v>
-      </c>
-      <c r="DG5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:111">
-      <c r="A6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.115073559157733</v>
-      </c>
-      <c r="J6">
-        <v>0.2371737246014334</v>
-      </c>
-      <c r="K6">
-        <v>0.331354985144136</v>
-      </c>
-      <c r="L6">
-        <v>0.4150502814339589</v>
-      </c>
-      <c r="M6">
-        <v>0.4756727099603244</v>
-      </c>
-      <c r="N6">
-        <v>0.5044374383900456</v>
-      </c>
-      <c r="O6">
-        <v>0.5145819862272415</v>
-      </c>
-      <c r="P6">
-        <v>0.5155035719847316</v>
-      </c>
-      <c r="Q6">
-        <v>0.5155035719847316</v>
-      </c>
-      <c r="R6">
-        <v>0.5158664929977597</v>
-      </c>
-      <c r="S6">
-        <v>0.5167790466659256</v>
-      </c>
-      <c r="T6">
-        <v>0.5211763157010807</v>
-      </c>
-      <c r="U6">
-        <v>0.535472093539498</v>
-      </c>
-      <c r="V6">
-        <v>0.570949510497174</v>
-      </c>
-      <c r="W6">
-        <v>0.6417705719281483</v>
-      </c>
-      <c r="X6">
-        <v>0.7398857583660676</v>
-      </c>
-      <c r="Y6">
-        <v>0.8365501931060616</v>
-      </c>
-      <c r="Z6">
-        <v>0.9086690619934812</v>
-      </c>
-      <c r="AA6">
-        <v>0.948472560636526</v>
-      </c>
-      <c r="AB6">
-        <v>0.9657155571501685</v>
-      </c>
-      <c r="AC6">
-        <v>0.9688883436618703</v>
-      </c>
-      <c r="AD6">
-        <v>0.9688883436618703</v>
-      </c>
-      <c r="AE6">
-        <v>0.9692247756070724</v>
-      </c>
-      <c r="AF6">
-        <v>0.9703602977459854</v>
-      </c>
-      <c r="AG6">
-        <v>0.9711879768474024</v>
-      </c>
-      <c r="AH6">
-        <v>0.9711971172871123</v>
-      </c>
-      <c r="AI6">
-        <v>0.9713238789342123</v>
-      </c>
-      <c r="AJ6">
-        <v>0.9726451349015066</v>
-      </c>
-      <c r="AK6">
-        <v>0.9737394855840887</v>
-      </c>
-      <c r="AL6">
-        <v>0.9737394855840887</v>
-      </c>
-      <c r="AM6">
-        <v>0.979153506583994</v>
-      </c>
-      <c r="AN6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AO6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AP6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AQ6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AR6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AS6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AT6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AU6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AV6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AW6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AX6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AY6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AZ6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BA6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BB6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BC6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BD6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BE6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BF6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BG6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BH6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BI6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BJ6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BK6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BL6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BM6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BN6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BO6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BP6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BQ6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BR6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BS6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BT6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BU6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BV6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BW6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BX6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BY6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BZ6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CA6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CB6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CC6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CD6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CE6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CF6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CG6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CH6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CI6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CJ6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CK6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CL6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CM6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CN6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CO6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CP6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CQ6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CR6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CS6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CT6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CU6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CV6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CW6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CX6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CY6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CZ6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DA6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DB6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DC6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DD6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DE6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DF6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DG6">
-        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4841,172 +5072,166 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>0.02913448163355234</v>
+        <v>0.08794336623224493</v>
       </c>
       <c r="F2">
-        <v>0.5348548247684206</v>
+        <v>0.5049084589464035</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2">
         <v>131</v>
-      </c>
-      <c r="J2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2">
-        <v>339</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>0.01428450020517988</v>
+        <v>0.1430972438266674</v>
       </c>
       <c r="F3">
-        <v>0.6002494131780993</v>
+        <v>0.5210711247934912</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3">
         <v>131</v>
-      </c>
-      <c r="J3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3">
-        <v>339</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E4">
-        <v>0.07760998127570268</v>
+        <v>0.169048391879024</v>
       </c>
       <c r="F4">
-        <v>0.6479080984635376</v>
+        <v>0.5508008964973297</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -5015,98 +5240,92 @@
         <v>600</v>
       </c>
       <c r="I4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4">
         <v>131</v>
-      </c>
-      <c r="J4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4">
-        <v>339</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>0.0482130996248897</v>
+        <v>0.1613300993600201</v>
       </c>
       <c r="F5">
-        <v>0.5141606809522064</v>
+        <v>0.5744173937242704</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5">
         <v>131</v>
-      </c>
-      <c r="J5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5">
-        <v>339</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>134</v>
-      </c>
-      <c r="O5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E6">
-        <v>0.115073559157733</v>
+        <v>0.2095406664517859</v>
       </c>
       <c r="F6">
-        <v>0.5044374383900456</v>
+        <v>0.5530616507949691</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5115,28 +5334,25 @@
         <v>600</v>
       </c>
       <c r="I6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6">
         <v>131</v>
-      </c>
-      <c r="J6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6">
-        <v>339</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5154,302 +5370,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0.02913448163355234</v>
+        <v>0.08794336623224493</v>
       </c>
       <c r="F2">
-        <v>0.7017294572311982</v>
+        <v>0.7652936419451248</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2">
         <v>131</v>
-      </c>
-      <c r="J2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2">
-        <v>339</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.01428450020517988</v>
+        <v>0.1430972438266674</v>
       </c>
       <c r="F3">
-        <v>0.7612929902571927</v>
+        <v>0.7516850666217482</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3">
         <v>131</v>
-      </c>
-      <c r="J3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3">
-        <v>339</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D4">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <v>0.169048391879024</v>
+      </c>
+      <c r="F4">
+        <v>0.7843888078083244</v>
+      </c>
+      <c r="G4">
         <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0.07760998127570268</v>
-      </c>
-      <c r="F4">
-        <v>0.7351677908702625</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4">
         <v>131</v>
-      </c>
-      <c r="J4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4">
-        <v>339</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>0.0482130996248897</v>
+        <v>0.1613300993600201</v>
       </c>
       <c r="F5">
-        <v>0.7133499062645253</v>
+        <v>0.76086729304982</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5">
         <v>131</v>
-      </c>
-      <c r="J5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5">
-        <v>339</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>134</v>
-      </c>
-      <c r="O5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>0.2095406664517859</v>
+      </c>
+      <c r="F6">
+        <v>0.7406850209630752</v>
+      </c>
+      <c r="G6">
         <v>8</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0.115073559157733</v>
-      </c>
-      <c r="F6">
-        <v>0.7398857583660676</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6">
         <v>131</v>
-      </c>
-      <c r="J6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6">
-        <v>339</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5467,72 +5668,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.02913448163355234</v>
+        <v>0.08794336623224493</v>
       </c>
       <c r="F2">
-        <v>0.8079852253668643</v>
+        <v>0.881366672978783</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -5541,228 +5742,213 @@
         <v>600</v>
       </c>
       <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2">
         <v>131</v>
-      </c>
-      <c r="J2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2">
-        <v>339</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01428450020517988</v>
+        <v>0.1430972438266674</v>
       </c>
       <c r="F3">
-        <v>0.8325448819586933</v>
+        <v>0.9035437293605876</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3">
         <v>131</v>
-      </c>
-      <c r="J3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3">
-        <v>339</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.07760998127570268</v>
+        <v>0.169048391879024</v>
       </c>
       <c r="F4">
-        <v>0.8116011069879495</v>
+        <v>0.8402891288663549</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4">
         <v>131</v>
-      </c>
-      <c r="J4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4">
-        <v>339</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.0482130996248897</v>
+        <v>0.1613300993600201</v>
       </c>
       <c r="F5">
-        <v>0.8390764054666107</v>
+        <v>0.8207580967256655</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5">
         <v>131</v>
-      </c>
-      <c r="J5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5">
-        <v>339</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>134</v>
-      </c>
-      <c r="O5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>0.115073559157733</v>
+        <v>0.2095406664517859</v>
       </c>
       <c r="F6">
-        <v>0.8365501931060616</v>
+        <v>0.8097493033409927</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6">
         <v>131</v>
-      </c>
-      <c r="J6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6">
-        <v>339</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5780,302 +5966,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0.02913448163355234</v>
+        <v>0.08794336623224493</v>
       </c>
       <c r="F2">
-        <v>0.908430084662316</v>
+        <v>0.9151489260103335</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2">
         <v>131</v>
-      </c>
-      <c r="J2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2">
-        <v>339</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01428450020517988</v>
+        <v>0.1430972438266674</v>
       </c>
       <c r="F3">
-        <v>0.9383636124847141</v>
+        <v>0.9035437293605876</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3">
         <v>131</v>
-      </c>
-      <c r="J3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3">
-        <v>339</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>0.07760998127570268</v>
+        <v>0.169048391879024</v>
       </c>
       <c r="F4">
-        <v>0.9034591040160849</v>
+        <v>0.9004904456077583</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4">
         <v>131</v>
-      </c>
-      <c r="J4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4">
-        <v>339</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.0482130996248897</v>
+        <v>0.1613300993600201</v>
       </c>
       <c r="F5">
-        <v>0.9007312748315178</v>
+        <v>0.9095987291495113</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5">
         <v>131</v>
-      </c>
-      <c r="J5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5">
-        <v>339</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>134</v>
-      </c>
-      <c r="O5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.115073559157733</v>
+        <v>0.2095406664517859</v>
       </c>
       <c r="F6">
-        <v>0.9086690619934812</v>
+        <v>0.9114992076442768</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6">
         <v>131</v>
-      </c>
-      <c r="J6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6">
-        <v>339</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
